--- a/verif_results/exact/datos_verificacion_softplus_1como7.xlsx
+++ b/verif_results/exact/datos_verificacion_softplus_1como7.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>9.807376384735107</v>
+        <v>8.079140424728394</v>
       </c>
       <c r="F1" t="n">
         <v>0</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="J1" t="n">
-        <v>10.66308927536011</v>
+        <v>8.858134031295776</v>
       </c>
       <c r="K1" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="O1" t="n">
-        <v>10.77747774124146</v>
+        <v>10.15001535415649</v>
       </c>
       <c r="P1" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>93.71589016914368</v>
+        <v>83.47198700904846</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90.95752835273743</v>
+        <v>76.9804790019989</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>90.74321699142456</v>
+        <v>82.92679762840271</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>448.7410352230072</v>
+        <v>320.0538997650146</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>286.2498776912689</v>
+        <v>223.9106199741364</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>344.406524181366</v>
+        <v>196.8844041824341</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>900.0013918876648</v>
+        <v>900.0013546943665</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4001201150646516</v>
+        <v>0.4375213056475514</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>900.0012030601501</v>
+        <v>900.0015604496002</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2890600486331591</v>
+        <v>0.4802007554971778</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>900.0015275478363</v>
+        <v>900.0013720989227</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5008058749130291</v>
+        <v>0.2933883829645741</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>250.8927912712097</v>
+        <v>178.3454082012177</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>224.400990486145</v>
+        <v>217.6098661422729</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>254.2687299251556</v>
+        <v>211.1223926544189</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>153.1341001987457</v>
+        <v>172.7030997276306</v>
       </c>
       <c r="F6" t="n">
-        <v>4.935261330649696</v>
+        <v>4.563061092187705</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>102.2842032909393</v>
+        <v>150.9462115764618</v>
       </c>
       <c r="K6" t="n">
-        <v>6.391709793597578</v>
+        <v>4.581846076062835</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>229.0765104293823</v>
+        <v>29.28235459327698</v>
       </c>
       <c r="P6" t="n">
-        <v>5.216178402891694</v>
+        <v>11.36682047465316</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>900.001341342926</v>
+        <v>900.001439332962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008351657105282691</v>
+        <v>0.009921005370900401</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>900.0008833408356</v>
+        <v>900.0011096000671</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005060759576431487</v>
+        <v>0.005882907113167083</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>900.0010464191437</v>
+        <v>900.001115322113</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01444441336295225</v>
+        <v>0.005175179084677902</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>438.7402348518372</v>
+        <v>74.58426213264465</v>
       </c>
       <c r="F8" t="n">
-        <v>3.392566421482265</v>
+        <v>4.259681899670664</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>900.0008108615875</v>
+        <v>49.45112776756287</v>
       </c>
       <c r="K8" t="n">
-        <v>2.695209233396653</v>
+        <v>4.367185761276866</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>200.5531322956085</v>
+        <v>166.4367814064026</v>
       </c>
       <c r="P8" t="n">
-        <v>4.139622528376655</v>
+        <v>3.379442939622564</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>316.4479310512543</v>
+        <v>38.16844463348389</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07699618011674732</v>
+        <v>0.1784393766435777</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>14.28895974159241</v>
+        <v>364.6961977481842</v>
       </c>
       <c r="K9" t="n">
-        <v>0.409287381599544</v>
+        <v>0.02352026720164927</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>35.18515777587891</v>
+        <v>5.953396081924438</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4113238654477571</v>
+        <v>0.6130999992957683</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.6794376373291</v>
+        <v>15.16459488868713</v>
       </c>
       <c r="F10" t="n">
-        <v>72.61364121740966</v>
+        <v>65.6961839311288</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>57.51755237579346</v>
+        <v>26.96913409233093</v>
       </c>
       <c r="K10" t="n">
-        <v>69.60100579315133</v>
+        <v>62.78445428248978</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>43.88670825958252</v>
+        <v>41.33236217498779</v>
       </c>
       <c r="P10" t="n">
-        <v>56.80841034636905</v>
+        <v>50.71510837874222</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>900.0010907649994</v>
+        <v>900.001006603241</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2413381139024757</v>
+        <v>0.3339427372394168</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>900.0007894039154</v>
+        <v>900.0009198188782</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3112233433991251</v>
+        <v>0.317519453591439</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>900.0008127689362</v>
+        <v>900.0008618831635</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2931289609754301</v>
+        <v>0.2796406874632025</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>900.0006747245789</v>
+        <v>86.93855857849121</v>
       </c>
       <c r="F12" t="n">
-        <v>21.26321173324139</v>
+        <v>23.83386490582941</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1263,40 +1263,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>900.0006258487701</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20.02335246118911</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>timelimit</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>900.0006127357483</v>
-      </c>
-      <c r="K12" t="n">
-        <v>18.51862690010808</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>timelimit</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>900.0007736682892</v>
+        <v>900.0006828308105</v>
       </c>
       <c r="P12" t="n">
-        <v>20.64772364851125</v>
+        <v>19.97233204562538</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>

--- a/verif_results/exact/datos_verificacion_softplus_1como7.xlsx
+++ b/verif_results/exact/datos_verificacion_softplus_1como7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,753 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>900.001403093338</v>
+      </c>
+      <c r="F4" t="n">
+        <v>106511</v>
+      </c>
+      <c r="G4" t="n">
+        <v>77.65981462585836</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>900.0013947486877</v>
+      </c>
+      <c r="L4" t="n">
+        <v>109290</v>
+      </c>
+      <c r="M4" t="n">
+        <v>91.71490638954396</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>900.0013248920441</v>
+      </c>
+      <c r="R4" t="n">
+        <v>105555</v>
+      </c>
+      <c r="S4" t="n">
+        <v>41.520458465639</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>178.5536344051361</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42606</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>218.1093246936798</v>
+      </c>
+      <c r="L5" t="n">
+        <v>51365</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>214.0651426315308</v>
+      </c>
+      <c r="R5" t="n">
+        <v>46806</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>169.4925594329834</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12108</v>
+      </c>
+      <c r="G6" t="n">
+        <v>128.065755094477</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>150.5767829418182</v>
+      </c>
+      <c r="L6" t="n">
+        <v>12524</v>
+      </c>
+      <c r="M6" t="n">
+        <v>127.918564303556</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>29.1234986782074</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1757</v>
+      </c>
+      <c r="S6" t="n">
+        <v>109.6461591328315</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>900.0014595985413</v>
+      </c>
+      <c r="F7" t="n">
+        <v>124872</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.003346207957202</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>900.001296043396</v>
+      </c>
+      <c r="L7" t="n">
+        <v>127883</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5967300825659179</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>900.0012264251709</v>
+      </c>
+      <c r="R7" t="n">
+        <v>156118</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5196131134905249</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>74.36289954185486</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4561</v>
+      </c>
+      <c r="G8" t="n">
+        <v>130.6778400708681</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>49.26203012466431</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1903</v>
+      </c>
+      <c r="M8" t="n">
+        <v>129.698391205503</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>165.4875347614288</v>
+      </c>
+      <c r="R8" t="n">
+        <v>9546</v>
+      </c>
+      <c r="S8" t="n">
+        <v>142.0266434360735</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>38.06237554550171</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2333</v>
+      </c>
+      <c r="G9" t="n">
+        <v>21.71956293554789</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>366.436514377594</v>
+      </c>
+      <c r="L9" t="n">
+        <v>36074</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.408679505743143</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>5.996017932891846</v>
+      </c>
+      <c r="R9" t="n">
+        <v>228</v>
+      </c>
+      <c r="S9" t="n">
+        <v>158.4647190953242</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>15.11527371406555</v>
+      </c>
+      <c r="F10" t="n">
+        <v>597</v>
+      </c>
+      <c r="G10" t="n">
+        <v>101.5456862201711</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>26.73735857009888</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2471</v>
+      </c>
+      <c r="M10" t="n">
+        <v>101.6185301166986</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>41.00881266593933</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2346</v>
+      </c>
+      <c r="S10" t="n">
+        <v>102.0114609675227</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>900.0010995864868</v>
+      </c>
+      <c r="F11" t="n">
+        <v>43374</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50.01392383009382</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>900.0008549690247</v>
+      </c>
+      <c r="L11" t="n">
+        <v>43836</v>
+      </c>
+      <c r="M11" t="n">
+        <v>46.52432296602908</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>900.0010542869568</v>
+      </c>
+      <c r="R11" t="n">
+        <v>41786</v>
+      </c>
+      <c r="S11" t="n">
+        <v>38.77434842957972</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>86.57896065711975</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1847</v>
+      </c>
+      <c r="G12" t="n">
+        <v>104.379460087568</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>900.000659942627</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11945</v>
+      </c>
+      <c r="M12" t="n">
+        <v>105.2566970098471</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>900.0006513595581</v>
+      </c>
+      <c r="R12" t="n">
+        <v>15855</v>
+      </c>
+      <c r="S12" t="n">
+        <v>105.2708333250502</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/verif_results/exact/datos_verificacion_softplus_1como7.xlsx
+++ b/verif_results/exact/datos_verificacion_softplus_1como7.xlsx
@@ -437,10 +437,10 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>8.089744329452515</v>
+        <v>8.847742080688477</v>
       </c>
       <c r="F1" t="n">
-        <v>2554</v>
+        <v>2656</v>
       </c>
       <c r="G1" t="n">
         <v>0</v>
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>8.798392534255981</v>
+        <v>8.576625108718872</v>
       </c>
       <c r="L1" t="n">
-        <v>2747</v>
+        <v>2339</v>
       </c>
       <c r="M1" t="n">
         <v>0</v>
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="Q1" t="n">
-        <v>9.3368821144104</v>
+        <v>8.857487678527832</v>
       </c>
       <c r="R1" t="n">
-        <v>2474</v>
+        <v>2509</v>
       </c>
       <c r="S1" t="n">
         <v>0</v>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83.78132605552673</v>
+        <v>113.1461224555969</v>
       </c>
       <c r="F2" t="n">
-        <v>19808</v>
+        <v>25392</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>76.6524932384491</v>
+        <v>88.74486112594604</v>
       </c>
       <c r="L2" t="n">
-        <v>16793</v>
+        <v>17155</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>82.9253454208374</v>
+        <v>106.1046988964081</v>
       </c>
       <c r="R2" t="n">
-        <v>18084</v>
+        <v>20637</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>321.7257053852081</v>
+        <v>215.5644519329071</v>
       </c>
       <c r="F3" t="n">
-        <v>125419</v>
+        <v>81790</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>244.7545990943909</v>
+        <v>373.6540184020996</v>
       </c>
       <c r="L3" t="n">
-        <v>87255</v>
+        <v>148410</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>214.1927406787872</v>
+        <v>331.0211908817291</v>
       </c>
       <c r="R3" t="n">
-        <v>73724</v>
+        <v>134445</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>900.001403093338</v>
+        <v>900.0024552345276</v>
       </c>
       <c r="F4" t="n">
-        <v>106511</v>
+        <v>115140</v>
       </c>
       <c r="G4" t="n">
-        <v>77.65981462585836</v>
+        <v>20.98089458587413</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>900.0013947486877</v>
+        <v>900.0013377666473</v>
       </c>
       <c r="L4" t="n">
-        <v>109290</v>
+        <v>107961</v>
       </c>
       <c r="M4" t="n">
-        <v>91.71490638954396</v>
+        <v>109.2559284527893</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>900.0013248920441</v>
+        <v>900.0014681816101</v>
       </c>
       <c r="R4" t="n">
-        <v>105555</v>
+        <v>109969</v>
       </c>
       <c r="S4" t="n">
-        <v>41.520458465639</v>
+        <v>100.3564896104568</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>178.5536344051361</v>
+        <v>184.8463613986969</v>
       </c>
       <c r="F5" t="n">
-        <v>42606</v>
+        <v>43759</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>218.1093246936798</v>
+        <v>189.3481328487396</v>
       </c>
       <c r="L5" t="n">
-        <v>51365</v>
+        <v>45755</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>214.0651426315308</v>
+        <v>210.1717236042023</v>
       </c>
       <c r="R5" t="n">
-        <v>46806</v>
+        <v>51091</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>169.4925594329834</v>
+        <v>46.52877879142761</v>
       </c>
       <c r="F6" t="n">
-        <v>12108</v>
+        <v>3014</v>
       </c>
       <c r="G6" t="n">
-        <v>128.065755094477</v>
+        <v>110.2532245776064</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>150.5767829418182</v>
+        <v>30.15119099617004</v>
       </c>
       <c r="L6" t="n">
-        <v>12524</v>
+        <v>1469</v>
       </c>
       <c r="M6" t="n">
-        <v>127.918564303556</v>
+        <v>113.5444608752696</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>29.1234986782074</v>
+        <v>32.15840291976929</v>
       </c>
       <c r="R6" t="n">
-        <v>1757</v>
+        <v>1993</v>
       </c>
       <c r="S6" t="n">
-        <v>109.6461591328315</v>
+        <v>115.6779551004585</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>900.0014595985413</v>
+        <v>900.0015866756439</v>
       </c>
       <c r="F7" t="n">
-        <v>124872</v>
+        <v>149913</v>
       </c>
       <c r="G7" t="n">
-        <v>1.003346207957202</v>
+        <v>0.9316104802937284</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>900.001296043396</v>
+        <v>900.0012423992157</v>
       </c>
       <c r="L7" t="n">
-        <v>127883</v>
+        <v>161775</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5967300825659179</v>
+        <v>0.4555815390052138</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>900.0012264251709</v>
+        <v>900.0014832019806</v>
       </c>
       <c r="R7" t="n">
-        <v>156118</v>
+        <v>156220</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5196131134905249</v>
+        <v>0.4114400083271225</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>74.36289954185486</v>
+        <v>900.0010976791382</v>
       </c>
       <c r="F8" t="n">
-        <v>4561</v>
+        <v>50770</v>
       </c>
       <c r="G8" t="n">
-        <v>130.6778400708681</v>
+        <v>199.8955410055518</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1033,46 +1033,46 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>19.99921011924744</v>
+      </c>
+      <c r="L8" t="n">
+        <v>914</v>
+      </c>
+      <c r="M8" t="n">
+        <v>128.253898125039</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>problem</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>49.26203012466431</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1903</v>
-      </c>
-      <c r="M8" t="n">
-        <v>129.698391205503</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>165.4875347614288</v>
+        <v>91.77964997291565</v>
       </c>
       <c r="R8" t="n">
-        <v>9546</v>
+        <v>3850</v>
       </c>
       <c r="S8" t="n">
-        <v>142.0266434360735</v>
+        <v>129.744856224843</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.06237554550171</v>
+        <v>136.7365002632141</v>
       </c>
       <c r="F9" t="n">
-        <v>2333</v>
+        <v>12470</v>
       </c>
       <c r="G9" t="n">
-        <v>21.71956293554789</v>
+        <v>11.45251401043676</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1125,13 +1125,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>366.436514377594</v>
+        <v>124.3697855472565</v>
       </c>
       <c r="L9" t="n">
-        <v>36074</v>
+        <v>9700</v>
       </c>
       <c r="M9" t="n">
-        <v>2.408679505743143</v>
+        <v>18.65675181610219</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>5.996017932891846</v>
+        <v>117.7641689777374</v>
       </c>
       <c r="R9" t="n">
-        <v>228</v>
+        <v>9153</v>
       </c>
       <c r="S9" t="n">
-        <v>158.4647190953242</v>
+        <v>17.46947229403947</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1184,13 +1184,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15.11527371406555</v>
+        <v>74.07834148406982</v>
       </c>
       <c r="F10" t="n">
-        <v>597</v>
+        <v>1955</v>
       </c>
       <c r="G10" t="n">
-        <v>101.5456862201711</v>
+        <v>102.0326821331378</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1208,13 +1208,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>26.73735857009888</v>
+        <v>18.63765478134155</v>
       </c>
       <c r="L10" t="n">
-        <v>2471</v>
+        <v>879</v>
       </c>
       <c r="M10" t="n">
-        <v>101.6185301166986</v>
+        <v>101.8426983164766</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>41.00881266593933</v>
+        <v>20.94517159461975</v>
       </c>
       <c r="R10" t="n">
-        <v>2346</v>
+        <v>993</v>
       </c>
       <c r="S10" t="n">
-        <v>102.0114609675227</v>
+        <v>101.6798700283936</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>900.0010995864868</v>
+        <v>900.0011320114136</v>
       </c>
       <c r="F11" t="n">
-        <v>43374</v>
+        <v>54461</v>
       </c>
       <c r="G11" t="n">
-        <v>50.01392383009382</v>
+        <v>25.65448098270517</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>900.0008549690247</v>
+        <v>900.0010311603546</v>
       </c>
       <c r="L11" t="n">
-        <v>43836</v>
+        <v>55701</v>
       </c>
       <c r="M11" t="n">
-        <v>46.52432296602908</v>
+        <v>20.51268384855554</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>900.0010542869568</v>
+        <v>900.0012676715851</v>
       </c>
       <c r="R11" t="n">
-        <v>41786</v>
+        <v>54397</v>
       </c>
       <c r="S11" t="n">
-        <v>38.77434842957972</v>
+        <v>22.54760032962106</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>86.57896065711975</v>
+        <v>900.0007073879242</v>
       </c>
       <c r="F12" t="n">
-        <v>1847</v>
+        <v>32863</v>
       </c>
       <c r="G12" t="n">
-        <v>104.379460087568</v>
+        <v>105.299970193834</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1365,46 +1365,46 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>300.0508599281311</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6491</v>
+      </c>
+      <c r="M12" t="n">
+        <v>104.5276395102228</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>problem</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>900.000659942627</v>
-      </c>
-      <c r="L12" t="n">
-        <v>11945</v>
-      </c>
-      <c r="M12" t="n">
-        <v>105.2566970098471</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>timelimit</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>900.0006513595581</v>
+        <v>313.6902208328247</v>
       </c>
       <c r="R12" t="n">
-        <v>15855</v>
+        <v>9765</v>
       </c>
       <c r="S12" t="n">
-        <v>105.2708333250502</v>
+        <v>105.4321823580792</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>problem</t>
         </is>
       </c>
     </row>
